--- a/test.xlsx
+++ b/test.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\★Repo\pyRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A7ED95-204C-4282-BEE5-7EAB2A2F24BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF1C958-57D6-4A72-A8FC-CB57E4116D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9190" yWindow="1250" windowWidth="19200" windowHeight="11260" xr2:uid="{D53B00BB-F77A-47FD-B5DA-96AD1A4C831F}"/>
+    <workbookView xWindow="8085" yWindow="2850" windowWidth="20715" windowHeight="15435" xr2:uid="{D53B00BB-F77A-47FD-B5DA-96AD1A4C831F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,13 +26,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,16 +44,71 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -63,19 +116,294 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{657DC690-058C-4D1E-A7FB-05A68AA23A8B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,230 +715,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E380D63-4DF0-4B0C-98D7-2F60007B2B40}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="10">
         <v>700</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="10">
         <v>1400</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="10">
         <v>2100</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="10">
         <v>3000</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="10">
         <v>3500</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>850</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="3">
         <v>2080</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>560</v>
+      </c>
+      <c r="C4" s="3">
+        <v>860</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1410</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2150</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2720</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3150</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3550</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3520</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3940</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4170</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4100</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4200</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4250</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4250</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>10000</v>
       </c>
-      <c r="B3">
+      <c r="B8" s="3">
+        <v>3770</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4110</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4250</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4250</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>12000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2930</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3810</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>14000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1960</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2580</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3020</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3340</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>16000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1530</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1950</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2340</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>18000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>320</v>
+      </c>
+      <c r="C12" s="3">
         <v>560</v>
       </c>
-      <c r="C3">
-        <v>860</v>
-      </c>
-      <c r="D3">
-        <v>1410</v>
-      </c>
-      <c r="E3">
-        <v>2400</v>
-      </c>
-      <c r="F3">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="D12" s="3">
+        <v>810</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1090</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>20000</v>
       </c>
-      <c r="B4">
-        <v>2150</v>
-      </c>
-      <c r="C4">
-        <v>2720</v>
-      </c>
-      <c r="D4">
-        <v>3150</v>
-      </c>
-      <c r="E4">
-        <v>3550</v>
-      </c>
-      <c r="F4">
-        <v>3920</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>30000</v>
-      </c>
-      <c r="B5">
-        <v>3520</v>
-      </c>
-      <c r="C5">
-        <v>3940</v>
-      </c>
-      <c r="D5">
-        <v>4100</v>
-      </c>
-      <c r="E5">
-        <v>4170</v>
-      </c>
-      <c r="F5">
-        <v>4220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>40000</v>
-      </c>
-      <c r="B6">
-        <v>4100</v>
-      </c>
-      <c r="C6">
-        <v>4200</v>
-      </c>
-      <c r="D6">
-        <v>4250</v>
-      </c>
-      <c r="E6">
-        <v>4250</v>
-      </c>
-      <c r="F6">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>50000</v>
-      </c>
-      <c r="B7">
-        <v>3770</v>
-      </c>
-      <c r="C7">
-        <v>4110</v>
-      </c>
-      <c r="D7">
-        <v>4250</v>
-      </c>
-      <c r="E7">
-        <v>4250</v>
-      </c>
-      <c r="F7">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>60000</v>
-      </c>
-      <c r="B8">
-        <v>2930</v>
-      </c>
-      <c r="C8">
-        <v>3500</v>
-      </c>
-      <c r="D8">
-        <v>3810</v>
-      </c>
-      <c r="E8">
-        <v>4000</v>
-      </c>
-      <c r="F8">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>70000</v>
-      </c>
-      <c r="B9">
-        <v>1960</v>
-      </c>
-      <c r="C9">
-        <v>2580</v>
-      </c>
-      <c r="D9">
-        <v>3020</v>
-      </c>
-      <c r="E9">
-        <v>3340</v>
-      </c>
-      <c r="F9">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>80000</v>
-      </c>
-      <c r="B10">
-        <v>1020</v>
-      </c>
-      <c r="C10">
-        <v>1530</v>
-      </c>
-      <c r="D10">
-        <v>1950</v>
-      </c>
-      <c r="E10">
-        <v>2340</v>
-      </c>
-      <c r="F10">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>90000</v>
-      </c>
-      <c r="B11">
-        <v>320</v>
-      </c>
-      <c r="C11">
-        <v>560</v>
-      </c>
-      <c r="D11">
-        <v>810</v>
-      </c>
-      <c r="E11">
-        <v>1090</v>
-      </c>
-      <c r="F11">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>100000</v>
-      </c>
-      <c r="E12">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>70</v>
       </c>
-      <c r="F12">
+      <c r="F13" s="3">
         <v>840</v>
       </c>
     </row>
@@ -618,4 +965,477 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1C7C1D-525A-4FFA-8ABD-C61AB7AC19CE}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3180</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2150</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="6">
+        <v>250</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B6" s="6">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B7" s="6">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="6">
+        <v>80</v>
+      </c>
+      <c r="C8" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>12000</v>
+      </c>
+      <c r="B9" s="6">
+        <v>80</v>
+      </c>
+      <c r="C9" s="7">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>14000</v>
+      </c>
+      <c r="B10" s="6">
+        <v>370</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>16000</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1370</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>18000</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3580</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B13" s="8">
+        <v>6620</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36461CFE-FDCF-4B98-ADD2-B53032C55002}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="11">
+        <v>-2000</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2280</v>
+      </c>
+      <c r="C1" s="13">
+        <v>3080</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="13">
+        <v>3080</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15">
+        <v>4170</v>
+      </c>
+      <c r="H1" s="16">
+        <v>6270</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17">
+        <v>6345</v>
+      </c>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2850</v>
+      </c>
+      <c r="C2" s="20">
+        <v>3620</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="20">
+        <v>3620</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22">
+        <v>4100</v>
+      </c>
+      <c r="H2" s="23">
+        <v>6200</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24">
+        <v>6275</v>
+      </c>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="19">
+        <v>3810</v>
+      </c>
+      <c r="C3" s="20">
+        <v>4200</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20">
+        <v>4200</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22">
+        <v>4050</v>
+      </c>
+      <c r="H3" s="23">
+        <v>6150</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24">
+        <v>6225</v>
+      </c>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>4000</v>
+      </c>
+      <c r="B4" s="19">
+        <v>4150</v>
+      </c>
+      <c r="C4" s="20">
+        <v>4250</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20">
+        <v>4250</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="26">
+        <v>4000</v>
+      </c>
+      <c r="H4" s="23">
+        <v>6100</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24">
+        <v>6175</v>
+      </c>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>6000</v>
+      </c>
+      <c r="B5" s="19">
+        <v>4250</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20">
+        <v>4250</v>
+      </c>
+      <c r="G5" s="22">
+        <v>4000</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>8000</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4250</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20">
+        <v>4250</v>
+      </c>
+      <c r="G6" s="22">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="19">
+        <v>4250</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20">
+        <v>4250</v>
+      </c>
+      <c r="G7" s="22">
+        <v>4000</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>12000</v>
+      </c>
+      <c r="B8" s="19">
+        <v>4190</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20">
+        <v>4250</v>
+      </c>
+      <c r="G8" s="22">
+        <v>4020</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>14000</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3800</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20">
+        <v>4090</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4170</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>16000</v>
+      </c>
+      <c r="B10" s="30">
+        <v>3150</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20">
+        <v>3600</v>
+      </c>
+      <c r="G10" s="22">
+        <v>4440</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>18000</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2110</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20">
+        <v>3200</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20">
+        <v>3330</v>
+      </c>
+      <c r="G11" s="26">
+        <v>4790</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="23">
+        <v>6690</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>20000</v>
+      </c>
+      <c r="B12" s="31">
+        <v>840</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33">
+        <v>1740</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32">
+        <v>1960</v>
+      </c>
+      <c r="G12" s="34">
+        <v>5240</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36">
+        <v>7140</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="37">
+        <v>7560</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>